--- a/public/ECF-buildings-dashboard-data.xlsx
+++ b/public/ECF-buildings-dashboard-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5176" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5176" uniqueCount="608">
   <si>
     <t>geo</t>
   </si>
@@ -1656,10 +1656,13 @@
     <t>2035: ban to use oil</t>
   </si>
   <si>
+    <t>2020: ban to use oil (district heating)</t>
+  </si>
+  <si>
     <t>Energy performance EPB scheme</t>
   </si>
   <si>
-    <t>Danis Climate Policy Plan</t>
+    <t>Danish Climate Policy Plan</t>
   </si>
   <si>
     <t>Draft decrée</t>
@@ -1677,6 +1680,9 @@
     <t>2050: ban to use gas</t>
   </si>
   <si>
+    <t>2020: ban to use gas (district heating)</t>
+  </si>
+  <si>
     <t>2021 (Flanders): ban to sell oil-fired heating systems</t>
   </si>
   <si>
@@ -1698,7 +1704,7 @@
     <t>2021: no new oil installations</t>
   </si>
   <si>
-    <t>Danish Climate Policy Plan</t>
+    <t>2023: no new oil-boilers installations</t>
   </si>
   <si>
     <t>Climate Action Programme 2030</t>
@@ -1710,10 +1716,13 @@
     <t>ROI Building Regulation</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Oeko Institut</t>
   </si>
   <si>
     <t>2013: ban to use gas heating</t>
+  </si>
+  <si>
+    <t>2022: ban to use gas heating in single-family homes, 2024: ban to use gas heating in collective housing</t>
   </si>
   <si>
     <t>2025: ban to use gas</t>
@@ -38705,7 +38714,7 @@
         <v>539</v>
       </c>
       <c r="E2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F2" t="s">
         <v>537</v>
@@ -38714,16 +38723,16 @@
         <v>540</v>
       </c>
       <c r="H2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I2" t="s">
         <v>536</v>
       </c>
       <c r="J2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L2" t="s">
         <v>537</v>
@@ -38735,7 +38744,7 @@
         <v>540</v>
       </c>
       <c r="O2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3">
@@ -38782,7 +38791,7 @@
         <v>540</v>
       </c>
       <c r="O3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4">
@@ -38829,7 +38838,7 @@
         <v>540</v>
       </c>
       <c r="O4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5">
@@ -38846,37 +38855,37 @@
         <v>541</v>
       </c>
       <c r="E5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F5" t="s">
         <v>536</v>
       </c>
       <c r="G5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I5" t="s">
         <v>536</v>
       </c>
       <c r="J5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="L5" t="s">
         <v>536</v>
       </c>
       <c r="M5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N5" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="O5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6">
@@ -38908,10 +38917,10 @@
         <v>536</v>
       </c>
       <c r="J6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L6" t="s">
         <v>537</v>
@@ -38923,7 +38932,7 @@
         <v>540</v>
       </c>
       <c r="O6" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7">
@@ -38970,7 +38979,7 @@
         <v>540</v>
       </c>
       <c r="O7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8">
@@ -39017,7 +39026,7 @@
         <v>540</v>
       </c>
       <c r="O8" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9">
@@ -39064,7 +39073,7 @@
         <v>540</v>
       </c>
       <c r="O9" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -39081,7 +39090,7 @@
         <v>542</v>
       </c>
       <c r="E10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F10" t="s">
         <v>537</v>
@@ -39090,28 +39099,28 @@
         <v>540</v>
       </c>
       <c r="H10" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I10" t="s">
         <v>538</v>
       </c>
       <c r="J10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M10" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="N10" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="O10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11">
@@ -39158,7 +39167,7 @@
         <v>540</v>
       </c>
       <c r="O11" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12">
@@ -39190,22 +39199,22 @@
         <v>536</v>
       </c>
       <c r="J12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L12" t="s">
         <v>536</v>
       </c>
       <c r="M12" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O12" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13">
@@ -39252,7 +39261,7 @@
         <v>540</v>
       </c>
       <c r="O13" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14">
@@ -39299,7 +39308,7 @@
         <v>540</v>
       </c>
       <c r="O14" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15">
@@ -39346,7 +39355,7 @@
         <v>540</v>
       </c>
       <c r="O15" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16">
@@ -39393,7 +39402,7 @@
         <v>540</v>
       </c>
       <c r="O16" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17">
@@ -39425,22 +39434,22 @@
         <v>536</v>
       </c>
       <c r="J17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K17" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L17" t="s">
         <v>536</v>
       </c>
       <c r="M17" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="N17" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O17" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
@@ -39487,7 +39496,7 @@
         <v>540</v>
       </c>
       <c r="O18" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19">
@@ -39534,7 +39543,7 @@
         <v>540</v>
       </c>
       <c r="O19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20">
@@ -39551,16 +39560,16 @@
         <v>543</v>
       </c>
       <c r="E20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F20" t="s">
         <v>536</v>
       </c>
       <c r="G20" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I20" t="s">
         <v>536</v>
@@ -39569,19 +39578,19 @@
         <v>543</v>
       </c>
       <c r="K20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L20" t="s">
         <v>536</v>
       </c>
       <c r="M20" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="N20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O20" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21">
@@ -39598,7 +39607,7 @@
         <v>544</v>
       </c>
       <c r="E21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F21" t="s">
         <v>537</v>
@@ -39607,28 +39616,28 @@
         <v>540</v>
       </c>
       <c r="H21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I21" t="s">
         <v>536</v>
       </c>
       <c r="J21" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L21" t="s">
         <v>536</v>
       </c>
       <c r="M21" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O21" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22">
@@ -39675,7 +39684,7 @@
         <v>540</v>
       </c>
       <c r="O22" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23">
@@ -39722,7 +39731,7 @@
         <v>540</v>
       </c>
       <c r="O23" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24">
@@ -39769,7 +39778,7 @@
         <v>540</v>
       </c>
       <c r="O24" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25">
@@ -39816,7 +39825,7 @@
         <v>540</v>
       </c>
       <c r="O25" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26">
@@ -39845,13 +39854,13 @@
         <v>540</v>
       </c>
       <c r="I26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J26" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="K26" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="L26" t="s">
         <v>537</v>
@@ -39863,7 +39872,7 @@
         <v>540</v>
       </c>
       <c r="O26" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27">
@@ -39910,7 +39919,7 @@
         <v>540</v>
       </c>
       <c r="O27" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28">
@@ -39921,43 +39930,43 @@
         <v>449</v>
       </c>
       <c r="C28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D28" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="E28" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G28" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="H28" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="I28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J28" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K28" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="L28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M28" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="N28" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="O28" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -39979,22 +39988,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="I1" t="s">
         <v>535</v>
@@ -40008,25 +40017,25 @@
         <v>425</v>
       </c>
       <c r="C2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3">
@@ -40037,25 +40046,25 @@
         <v>426</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4">
@@ -40066,25 +40075,25 @@
         <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5">
@@ -40095,25 +40104,25 @@
         <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6">
@@ -40124,25 +40133,25 @@
         <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I6" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7">
@@ -40153,25 +40162,25 @@
         <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8">
@@ -40182,25 +40191,25 @@
         <v>432</v>
       </c>
       <c r="C8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I8" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9">
@@ -40211,25 +40220,25 @@
         <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E9" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F9" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G9" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H9" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I9" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -40240,25 +40249,25 @@
         <v>436</v>
       </c>
       <c r="C10" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11">
@@ -40269,25 +40278,25 @@
         <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D11" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E11" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F11" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G11" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H11" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I11" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12">
@@ -40298,25 +40307,25 @@
         <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I12" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13">
@@ -40327,25 +40336,25 @@
         <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D13" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E13" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F13" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G13" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H13" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I13" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14">
@@ -40356,25 +40365,25 @@
         <v>427</v>
       </c>
       <c r="C14" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I14" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15">
@@ -40385,25 +40394,25 @@
         <v>443</v>
       </c>
       <c r="C15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D15" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E15" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F15" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G15" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H15" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I15" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16">
@@ -40414,25 +40423,25 @@
         <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I16" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17">
@@ -40443,25 +40452,25 @@
         <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D17" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E17" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F17" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G17" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H17" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I17" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
@@ -40472,25 +40481,25 @@
         <v>438</v>
       </c>
       <c r="C18" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D18" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E18" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F18" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G18" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H18" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I18" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19">
@@ -40501,25 +40510,25 @@
         <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20">
@@ -40530,25 +40539,25 @@
         <v>445</v>
       </c>
       <c r="C20" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D20" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E20" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F20" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G20" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H20" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I20" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21">
@@ -40559,25 +40568,25 @@
         <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D21" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E21" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F21" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G21" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H21" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I21" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22">
@@ -40588,25 +40597,25 @@
         <v>446</v>
       </c>
       <c r="C22" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I22" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23">
@@ -40617,25 +40626,25 @@
         <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I23" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24">
@@ -40646,25 +40655,25 @@
         <v>448</v>
       </c>
       <c r="C24" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I24" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25">
@@ -40675,25 +40684,25 @@
         <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D25" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E25" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F25" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G25" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H25" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I25" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26">
@@ -40704,25 +40713,25 @@
         <v>451</v>
       </c>
       <c r="C26" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D26" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E26" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F26" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G26" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H26" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I26" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27">
@@ -40733,25 +40742,25 @@
         <v>435</v>
       </c>
       <c r="C27" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D27" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E27" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F27" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G27" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H27" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I27" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28">
@@ -40762,25 +40771,25 @@
         <v>449</v>
       </c>
       <c r="C28" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D28" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E28" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F28" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G28" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H28" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I28" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/public/ECF-buildings-dashboard-data.xlsx
+++ b/public/ECF-buildings-dashboard-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5270" uniqueCount="623">
   <si>
     <t>geo</t>
   </si>
@@ -1879,9 +1879,6 @@
   </si>
   <si>
     <t>RRF</t>
-  </si>
-  <si>
-    <t>submitted / not yet assessed</t>
   </si>
   <si>
     <t>submitted / assessed</t>
@@ -40810,19 +40807,19 @@
         <v>620</v>
       </c>
       <c r="D2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I2" t="s">
         <v>587</v>
@@ -40839,19 +40836,19 @@
         <v>620</v>
       </c>
       <c r="D3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I3" t="s">
         <v>588</v>
@@ -40865,22 +40862,22 @@
         <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I4" t="s">
         <v>589</v>
@@ -40894,22 +40891,22 @@
         <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I5" t="s">
         <v>590</v>
@@ -40923,22 +40920,22 @@
         <v>432</v>
       </c>
       <c r="C6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I6" t="s">
         <v>591</v>
@@ -40952,22 +40949,22 @@
         <v>443</v>
       </c>
       <c r="C7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I7" t="s">
         <v>592</v>
@@ -40984,19 +40981,19 @@
         <v>620</v>
       </c>
       <c r="D8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I8" t="s">
         <v>593</v>
@@ -41010,22 +41007,22 @@
         <v>445</v>
       </c>
       <c r="C9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I9" t="s">
         <v>594</v>
@@ -41039,22 +41036,22 @@
         <v>448</v>
       </c>
       <c r="C10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I10" t="s">
         <v>595</v>
@@ -41071,19 +41068,19 @@
         <v>620</v>
       </c>
       <c r="D11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I11" t="s">
         <v>596</v>
@@ -41097,22 +41094,22 @@
         <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I12" t="s">
         <v>597</v>
@@ -41129,19 +41126,19 @@
         <v>620</v>
       </c>
       <c r="D13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I13" t="s">
         <v>598</v>
@@ -41155,22 +41152,22 @@
         <v>440</v>
       </c>
       <c r="C14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I14" t="s">
         <v>599</v>
@@ -41187,19 +41184,19 @@
         <v>620</v>
       </c>
       <c r="D15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I15" t="s">
         <v>600</v>
@@ -41216,19 +41213,19 @@
         <v>620</v>
       </c>
       <c r="D16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I16" t="s">
         <v>601</v>
@@ -41242,22 +41239,22 @@
         <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I17" t="s">
         <v>602</v>
@@ -41271,22 +41268,22 @@
         <v>450</v>
       </c>
       <c r="C18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D18" t="s">
         <v>622</v>
       </c>
-      <c r="D18" t="s">
-        <v>623</v>
-      </c>
       <c r="E18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I18" t="s">
         <v>603</v>
@@ -41300,22 +41297,22 @@
         <v>454</v>
       </c>
       <c r="C19" t="s">
+        <v>620</v>
+      </c>
+      <c r="D19" t="s">
         <v>622</v>
       </c>
-      <c r="D19" t="s">
-        <v>623</v>
-      </c>
       <c r="E19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I19" t="s">
         <v>604</v>
@@ -41329,22 +41326,22 @@
         <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I20" t="s">
         <v>605</v>
@@ -41358,22 +41355,22 @@
         <v>431</v>
       </c>
       <c r="C21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I21" t="s">
         <v>606</v>
@@ -41387,22 +41384,22 @@
         <v>435</v>
       </c>
       <c r="C22" t="s">
+        <v>621</v>
+      </c>
+      <c r="D22" t="s">
         <v>622</v>
       </c>
-      <c r="D22" t="s">
-        <v>623</v>
-      </c>
       <c r="E22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I22" t="s">
         <v>607</v>
@@ -41419,19 +41416,19 @@
         <v>620</v>
       </c>
       <c r="D23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I23" t="s">
         <v>608</v>
@@ -41448,19 +41445,19 @@
         <v>620</v>
       </c>
       <c r="D24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I24" t="s">
         <v>609</v>
@@ -41474,22 +41471,22 @@
         <v>457</v>
       </c>
       <c r="C25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D25" t="s">
         <v>622</v>
       </c>
-      <c r="D25" t="s">
-        <v>623</v>
-      </c>
       <c r="E25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I25" t="s">
         <v>610</v>
@@ -41506,19 +41503,19 @@
         <v>620</v>
       </c>
       <c r="D26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I26" t="s">
         <v>611</v>
@@ -41532,22 +41529,22 @@
         <v>447</v>
       </c>
       <c r="C27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I27" t="s">
         <v>612</v>
@@ -41561,22 +41558,22 @@
         <v>456</v>
       </c>
       <c r="C28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I28" t="s">
         <v>613</v>

--- a/public/ECF-buildings-dashboard-data.xlsx
+++ b/public/ECF-buildings-dashboard-data.xlsx
@@ -14,12 +14,13 @@
     <sheet name="poverty" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="limit.fossils" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="credibility" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ambition" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">geo</t>
   </si>
@@ -213,6 +214,12 @@
     <t xml:space="preserve">2021 (Flanders): ban to sell oil-fired heating systems</t>
   </si>
   <si>
+    <t xml:space="preserve">prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 (Flanders): ban</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
@@ -240,10 +247,19 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">2024: 65% RES requirement, excludes stand alone gas boilder</t>
+  </si>
+  <si>
     <t xml:space="preserve">2026: ban to use oil</t>
   </si>
   <si>
     <t xml:space="preserve">Climate Action Programme 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023: excludes gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KfW40</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
@@ -258,19 +274,10 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022: ban to use oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draft decrée</t>
+    <t xml:space="preserve">2022: threshold of 300gCo2eq/kWh for new equipment (=ban of oil-fired boilers)</t>
   </si>
   <si>
     <t xml:space="preserve">2021: ban of oil-boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draft Decrée</t>
   </si>
   <si>
     <t xml:space="preserve">2022: ban to use gas heating in single-family homes, 2024: ban to use gas heating in collective housing</t>
@@ -282,10 +289,10 @@
     <t xml:space="preserve">Croatia</t>
   </si>
   <si>
-    <t xml:space="preserve">2020: ban to use oil</t>
+    <t xml:space="preserve">2022: ban to use oil</t>
   </si>
   <si>
-    <t xml:space="preserve">ROI Building Regulation</t>
+    <t xml:space="preserve">2019 Climate Action Plan</t>
   </si>
   <si>
     <t xml:space="preserve">2025: ban to use gas</t>
@@ -327,13 +334,13 @@
     <t xml:space="preserve">NL has no oil boilers</t>
   </si>
   <si>
-    <t xml:space="preserve">New Climate Package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2050: ban to use gas</t>
+    <t xml:space="preserve">2026: ban to install stand alone gas boilers</t>
   </si>
   <si>
     <t xml:space="preserve">2021: ban to use gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Climate Package</t>
   </si>
   <si>
     <t xml:space="preserve">Netherlands</t>
@@ -402,7 +409,37 @@
     <t xml:space="preserve">submitted / assessed</t>
   </si>
   <si>
-    <t xml:space="preserve">not submitted</t>
+    <t xml:space="preserve">submitted / not yet assessed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee.fec.necp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eed.recast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less ambition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more ambition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
   </si>
 </sst>
 </file>
@@ -32456,7 +32493,7 @@
         <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -32468,16 +32505,16 @@
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -32521,7 +32558,7 @@
         <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -32565,7 +32602,7 @@
         <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -32576,40 +32613,40 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
       </c>
       <c r="K5" t="s">
         <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -32626,10 +32663,10 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>62</v>
@@ -32638,22 +32675,22 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -32697,7 +32734,7 @@
         <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -32741,7 +32778,7 @@
         <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -32785,7 +32822,7 @@
         <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -32793,13 +32830,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>61</v>
@@ -32811,25 +32848,25 @@
         <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -32873,7 +32910,7 @@
         <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -32902,22 +32939,22 @@
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -32961,7 +32998,7 @@
         <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -33005,7 +33042,7 @@
         <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -33049,7 +33086,7 @@
         <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -33093,7 +33130,7 @@
         <v>62</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -33122,22 +33159,22 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s">
         <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -33181,7 +33218,7 @@
         <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -33225,7 +33262,7 @@
         <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -33236,40 +33273,40 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
         <v>58</v>
       </c>
       <c r="L20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -33277,13 +33314,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -33292,28 +33329,28 @@
         <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -33357,7 +33394,7 @@
         <v>62</v>
       </c>
       <c r="N22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -33401,7 +33438,7 @@
         <v>62</v>
       </c>
       <c r="N23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -33445,7 +33482,7 @@
         <v>62</v>
       </c>
       <c r="N24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -33489,7 +33526,7 @@
         <v>62</v>
       </c>
       <c r="N25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -33518,10 +33555,10 @@
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s">
         <v>61</v>
@@ -33533,7 +33570,7 @@
         <v>62</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -33577,7 +33614,7 @@
         <v>62</v>
       </c>
       <c r="N27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -33588,40 +33625,40 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
         <v>58</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -33643,22 +33680,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
         <v>57</v>
@@ -33669,7 +33706,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -33677,7 +33714,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -33685,7 +33722,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -33693,7 +33730,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -33701,7 +33738,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -33709,7 +33746,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -33717,7 +33754,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -33725,7 +33762,7 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -33733,7 +33770,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -33741,7 +33778,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -33749,7 +33786,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -33757,7 +33794,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -33765,7 +33802,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -33773,7 +33810,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -33781,7 +33818,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -33789,7 +33826,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -33797,7 +33834,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -33805,7 +33842,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -33813,7 +33850,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -33821,7 +33858,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -33829,7 +33866,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -33837,7 +33874,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -33845,7 +33882,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -33853,7 +33890,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -33861,7 +33898,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -33869,7 +33906,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -33877,7 +33914,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -33885,7 +33922,7 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -33893,7 +33930,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -33901,7 +33938,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -33909,7 +33946,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -33917,7 +33954,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -33925,7 +33962,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -33933,7 +33970,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -33941,7 +33978,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -33949,7 +33986,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -33957,7 +33994,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -33965,7 +34002,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -33973,7 +34010,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -33981,7 +34018,7 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -33989,7 +34026,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -33997,7 +34034,7 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -34005,7 +34042,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -34013,7 +34050,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -34021,7 +34058,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -34029,7 +34066,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -34037,7 +34074,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -34045,7 +34082,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -34053,7 +34090,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -34061,7 +34098,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -34069,7 +34106,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -34077,7 +34114,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -34085,7 +34122,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -34093,7 +34130,413 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/public/ECF-buildings-dashboard-data.xlsx
+++ b/public/ECF-buildings-dashboard-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t xml:space="preserve">geo</t>
   </si>
@@ -433,9 +433,6 @@
     <t xml:space="preserve">modest</t>
   </si>
   <si>
-    <t xml:space="preserve">more ambition</t>
-  </si>
-  <si>
     <t xml:space="preserve">sufficient</t>
   </si>
   <si>
@@ -34211,7 +34208,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>74</v>
@@ -34225,7 +34222,7 @@
         <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -34264,10 +34261,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
@@ -34278,7 +34275,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -34309,7 +34306,7 @@
         <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
         <v>92</v>
@@ -34320,7 +34317,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -34376,10 +34373,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
         <v>100</v>
@@ -34421,7 +34418,7 @@
         <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
         <v>107</v>
@@ -34435,7 +34432,7 @@
         <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
         <v>111</v>
@@ -34485,13 +34482,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
         <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
         <v>115</v>
@@ -34519,7 +34516,7 @@
         <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>118</v>
@@ -34533,7 +34530,7 @@
         <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
         <v>121</v>
